--- a/simulation_data/two_step_algorithm/2s_error_level_15_percent_water_60.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_15_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>91.99602957989082</v>
+        <v>91.15413843765043</v>
       </c>
       <c r="D2" t="n">
-        <v>23.38336987848802</v>
+        <v>20.95865088523261</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>93.18952652247124</v>
+        <v>90.84919706577622</v>
       </c>
       <c r="D3" t="n">
-        <v>22.05957214418039</v>
+        <v>24.0930884358234</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.15584956247457</v>
+        <v>89.73698750631917</v>
       </c>
       <c r="D4" t="n">
-        <v>22.12820642789102</v>
+        <v>25.29508764243475</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>91.72668230115615</v>
+        <v>91.48383339170822</v>
       </c>
       <c r="D5" t="n">
-        <v>22.52124424632237</v>
+        <v>21.60201963299659</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>90.81569919020662</v>
+        <v>88.12402843393977</v>
       </c>
       <c r="D6" t="n">
-        <v>24.05709494914087</v>
+        <v>23.5666479616671</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.46198147663658</v>
+        <v>88.66486722286149</v>
       </c>
       <c r="D7" t="n">
-        <v>24.09895346867902</v>
+        <v>20.49149057063719</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.38290297775634</v>
+        <v>84.64813390807817</v>
       </c>
       <c r="D8" t="n">
-        <v>22.26313478022897</v>
+        <v>22.56404476149703</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>89.24772993843629</v>
+        <v>84.9468064053613</v>
       </c>
       <c r="D9" t="n">
-        <v>23.59712839587306</v>
+        <v>27.13458778560811</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>86.84676664974162</v>
+        <v>84.09339758685556</v>
       </c>
       <c r="D10" t="n">
-        <v>25.87991480095003</v>
+        <v>24.33820626420313</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>88.47674417049988</v>
+        <v>83.95163447842633</v>
       </c>
       <c r="D11" t="n">
-        <v>27.66123841593801</v>
+        <v>20.03377848527393</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>85.53509257080788</v>
+        <v>80.87201447260973</v>
       </c>
       <c r="D12" t="n">
-        <v>27.64699908850809</v>
+        <v>23.75365241137727</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.65116075882274</v>
+        <v>79.91768848997555</v>
       </c>
       <c r="D13" t="n">
-        <v>23.44466538245258</v>
+        <v>22.19081075885643</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.44399395482304</v>
+        <v>83.39578015495685</v>
       </c>
       <c r="D14" t="n">
-        <v>19.8467927504805</v>
+        <v>25.17488962655205</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>80.35832122059172</v>
+        <v>78.75182630491162</v>
       </c>
       <c r="D15" t="n">
-        <v>22.6440347042212</v>
+        <v>24.48873983363265</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>80.16134360333992</v>
+        <v>77.23519583099875</v>
       </c>
       <c r="D16" t="n">
-        <v>23.91299525558702</v>
+        <v>20.74400474018385</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>79.44676574998041</v>
+        <v>75.52464298826635</v>
       </c>
       <c r="D17" t="n">
-        <v>24.74443329636472</v>
+        <v>23.43887082028745</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>77.79876115975135</v>
+        <v>73.93179894712273</v>
       </c>
       <c r="D18" t="n">
-        <v>26.11774255396346</v>
+        <v>22.43329933731563</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>71.9508930582567</v>
+        <v>74.33371718986901</v>
       </c>
       <c r="D19" t="n">
-        <v>22.70959576729917</v>
+        <v>23.97247885346295</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>76.10702356819135</v>
+        <v>70.90366307883615</v>
       </c>
       <c r="D20" t="n">
-        <v>25.11666934249126</v>
+        <v>22.30839164331465</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>74.29384817425331</v>
+        <v>72.09009641251676</v>
       </c>
       <c r="D21" t="n">
-        <v>25.30979066147439</v>
+        <v>21.41984441672526</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>76.89271161741176</v>
+        <v>73.30994521780524</v>
       </c>
       <c r="D22" t="n">
-        <v>26.72344810664007</v>
+        <v>24.2376146180379</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.29869951893725</v>
+        <v>71.05862005410978</v>
       </c>
       <c r="D23" t="n">
-        <v>25.35668747861779</v>
+        <v>21.71206175012281</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.58427761229787</v>
+        <v>70.83938396948179</v>
       </c>
       <c r="D24" t="n">
-        <v>23.30041144353157</v>
+        <v>21.85353466232092</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>64.69351053655635</v>
+        <v>68.09203647968602</v>
       </c>
       <c r="D25" t="n">
-        <v>25.55855492944208</v>
+        <v>20.33257579406606</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>63.74462950819536</v>
+        <v>62.43776425081195</v>
       </c>
       <c r="D26" t="n">
-        <v>24.85018284431516</v>
+        <v>21.76880700987281</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>68.05814057709931</v>
+        <v>64.76921032522664</v>
       </c>
       <c r="D27" t="n">
-        <v>25.68129986271395</v>
+        <v>24.75092062333302</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>67.12289067389166</v>
+        <v>64.98064213703023</v>
       </c>
       <c r="D28" t="n">
-        <v>21.05816319767469</v>
+        <v>20.7566625447276</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.01242815750888</v>
+        <v>66.51226719475983</v>
       </c>
       <c r="D29" t="n">
-        <v>21.32620013200619</v>
+        <v>22.68515195668373</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>65.28036319711339</v>
+        <v>63.1809221928096</v>
       </c>
       <c r="D30" t="n">
-        <v>23.0481185521222</v>
+        <v>21.12242123059215</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>66.77930756400391</v>
+        <v>62.2556891691747</v>
       </c>
       <c r="D31" t="n">
-        <v>24.67100244556103</v>
+        <v>21.19138188886231</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>56.45523903243654</v>
+        <v>59.2331995634315</v>
       </c>
       <c r="D32" t="n">
-        <v>26.30132038492023</v>
+        <v>23.87177270928137</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>63.97875885843194</v>
+        <v>56.33247807214459</v>
       </c>
       <c r="D33" t="n">
-        <v>23.84674895383061</v>
+        <v>20.3791163160531</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.72082638803109</v>
+        <v>58.52866001393627</v>
       </c>
       <c r="D34" t="n">
-        <v>25.67963500081063</v>
+        <v>22.53374192936307</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>52.52817177800571</v>
+        <v>55.90198662573207</v>
       </c>
       <c r="D35" t="n">
-        <v>27.06378342388815</v>
+        <v>25.4434707664888</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>52.32783654508346</v>
+        <v>59.42469591843738</v>
       </c>
       <c r="D36" t="n">
-        <v>23.86740870813627</v>
+        <v>21.1862405130652</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>57.7563924488131</v>
+        <v>56.81755630472318</v>
       </c>
       <c r="D37" t="n">
-        <v>24.17252805062517</v>
+        <v>20.27182466517845</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>52.38565019737418</v>
+        <v>52.6034922643392</v>
       </c>
       <c r="D38" t="n">
-        <v>23.24604286936204</v>
+        <v>24.81535332104974</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.21156103894207</v>
+        <v>50.50854191805472</v>
       </c>
       <c r="D39" t="n">
-        <v>26.19143910721009</v>
+        <v>23.68972617241721</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.2456486541391</v>
+        <v>52.37068110943733</v>
       </c>
       <c r="D40" t="n">
-        <v>23.47319074149037</v>
+        <v>23.27652499961085</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>48.35975970067431</v>
+        <v>50.46193180288515</v>
       </c>
       <c r="D41" t="n">
-        <v>24.91630022125375</v>
+        <v>23.69702832003081</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>54.87967127336569</v>
+        <v>47.14676096324148</v>
       </c>
       <c r="D42" t="n">
-        <v>24.9904480940249</v>
+        <v>20.27938743284086</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>47.79884210794326</v>
+        <v>52.31017822585041</v>
       </c>
       <c r="D43" t="n">
-        <v>19.77414294465334</v>
+        <v>20.68759304200501</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.58910031355745</v>
+        <v>50.51847782942157</v>
       </c>
       <c r="D44" t="n">
-        <v>25.26311225852451</v>
+        <v>21.35227556209749</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.81942458507335</v>
+        <v>50.14478154493045</v>
       </c>
       <c r="D45" t="n">
-        <v>24.73231931013997</v>
+        <v>24.29004782966771</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>48.04859577694139</v>
+        <v>48.77576504970632</v>
       </c>
       <c r="D46" t="n">
-        <v>24.32439773515573</v>
+        <v>22.98241546404954</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.89344936148809</v>
+        <v>48.72834111918034</v>
       </c>
       <c r="D47" t="n">
-        <v>21.86290414995186</v>
+        <v>22.22872746504085</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>47.63254495951217</v>
+        <v>43.57716975325292</v>
       </c>
       <c r="D48" t="n">
-        <v>23.61857711873074</v>
+        <v>22.7754738497242</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>44.15128754308495</v>
+        <v>44.77414236800632</v>
       </c>
       <c r="D49" t="n">
-        <v>22.73814428323643</v>
+        <v>24.29173496974929</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>43.49080312990075</v>
+        <v>41.16823272405421</v>
       </c>
       <c r="D50" t="n">
-        <v>19.27206188794513</v>
+        <v>25.39430911460455</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>43.31353022731989</v>
+        <v>40.66275211661495</v>
       </c>
       <c r="D51" t="n">
-        <v>22.16028580024949</v>
+        <v>22.45666023383177</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.13625136170975</v>
+        <v>41.39168782831611</v>
       </c>
       <c r="D52" t="n">
-        <v>21.48908493110998</v>
+        <v>21.66341492335804</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>37.78105184682654</v>
+        <v>36.35245318771896</v>
       </c>
       <c r="D53" t="n">
-        <v>23.1803991402404</v>
+        <v>21.74458161711078</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>36.51636285753062</v>
+        <v>37.03072682642777</v>
       </c>
       <c r="D54" t="n">
-        <v>20.88205546015446</v>
+        <v>24.32800521459256</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.69850813180661</v>
+        <v>36.90659691373448</v>
       </c>
       <c r="D55" t="n">
-        <v>22.84480893893486</v>
+        <v>25.51279003763333</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>38.8033948848485</v>
+        <v>37.55427134300331</v>
       </c>
       <c r="D56" t="n">
-        <v>24.60501584186454</v>
+        <v>22.27239400794132</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>37.09801988714955</v>
+        <v>37.76747062327662</v>
       </c>
       <c r="D57" t="n">
-        <v>21.23086604727889</v>
+        <v>25.07355353366579</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.48782765844197</v>
+        <v>34.57889865140267</v>
       </c>
       <c r="D58" t="n">
-        <v>23.15281136223699</v>
+        <v>21.46227870252054</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>31.6564776093675</v>
+        <v>32.72163437711021</v>
       </c>
       <c r="D59" t="n">
-        <v>22.96616199869365</v>
+        <v>22.32072180930995</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.64741231673835</v>
+        <v>33.81317390618534</v>
       </c>
       <c r="D60" t="n">
-        <v>23.62058439508701</v>
+        <v>23.52406293232411</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>32.31772162869866</v>
+        <v>26.19811234431392</v>
       </c>
       <c r="D61" t="n">
-        <v>22.22733033547123</v>
+        <v>23.06536527508838</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.49416361135658</v>
+        <v>30.88927805656838</v>
       </c>
       <c r="D62" t="n">
-        <v>22.64364803712475</v>
+        <v>23.07255269151675</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>24.22794507002853</v>
+        <v>29.7958554997796</v>
       </c>
       <c r="D63" t="n">
-        <v>27.6567599002204</v>
+        <v>21.22241664980217</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>30.95691284495682</v>
+        <v>27.30600722358393</v>
       </c>
       <c r="D64" t="n">
-        <v>24.27686188813143</v>
+        <v>24.53516475429533</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>25.95948289780535</v>
+        <v>26.51033490787131</v>
       </c>
       <c r="D65" t="n">
-        <v>20.49716331041029</v>
+        <v>22.35047429358809</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.32300220588559</v>
+        <v>25.54452972721733</v>
       </c>
       <c r="D66" t="n">
-        <v>23.89463129873062</v>
+        <v>20.23814081188003</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.17623984963125</v>
+        <v>23.21971499032255</v>
       </c>
       <c r="D67" t="n">
-        <v>20.41217413734382</v>
+        <v>20.70107800023609</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>22.42157006629257</v>
+        <v>18.72362657726914</v>
       </c>
       <c r="D68" t="n">
-        <v>21.27290453080523</v>
+        <v>21.76217960700387</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>20.78059169184522</v>
+        <v>22.03112262815751</v>
       </c>
       <c r="D69" t="n">
-        <v>20.52592519801212</v>
+        <v>23.88295416377997</v>
       </c>
     </row>
   </sheetData>
